--- a/data/trans_dic/P64D$publico_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P64D$publico_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 8,43</t>
+          <t>1,83; 8,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 6,64</t>
+          <t>1,03; 7,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,02</t>
+          <t>1,91; 6,29</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 10,46</t>
+          <t>2,33; 9,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,92; 11,7</t>
+          <t>2,68; 11,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 8,84</t>
+          <t>3,34; 8,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,68</t>
+          <t>0,0; 4,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,01; 17,43</t>
+          <t>6,29; 17,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 8,75</t>
+          <t>3,19; 8,96</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,51</t>
+          <t>0,44; 5,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 8,74</t>
+          <t>1,54; 8,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,75</t>
+          <t>1,56; 5,71</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 8,88</t>
+          <t>1,23; 8,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,49</t>
+          <t>0,29; 2,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,73</t>
+          <t>0,89; 4,38</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,63</t>
+          <t>0,0; 0,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,11</t>
+          <t>0,0; 4,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,07; 1,98</t>
+          <t>0,07; 2,36</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,09; 9,27</t>
+          <t>3,28; 9,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,45; 12,71</t>
+          <t>6,61; 12,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,39; 9,58</t>
+          <t>5,54; 9,77</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,08; 22,25</t>
+          <t>4,83; 22,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>24,64; 36,29</t>
+          <t>24,51; 35,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,15; 25,72</t>
+          <t>7,52; 25,38</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,05; 8,03</t>
+          <t>4,26; 8,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,43; 12,0</t>
+          <t>8,38; 12,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,1; 9,24</t>
+          <t>6,23; 9,33</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, se desplaza desde su casa al centro de trabajo/estudios en transporte público (autobús, metro, tren)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8035</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4029</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12064</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3521; 16251</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1483; 10333</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6424; 21154</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>12385</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10058</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>22443</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5719; 24027</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4435; 18815</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13719; 36929</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1891</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12895</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14786</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6413</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7598; 21545</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8603; 24145</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2925</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>11264</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>14189</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>740; 8842</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3973; 22642</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6664; 24342</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3812</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4702</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1409; 9264</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>311; 2862</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1959; 9690</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1287</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 836</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3923</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>165; 5224</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>18545</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>27983</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>46528</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>10969; 30561</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>20288; 38803</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>35507; 62644</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>80227</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>80237</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>160464</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>30327; 141721</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>66441; 96252</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>67624; 228238</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>127982</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>148643</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>276625</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>83786; 158391</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>122483; 177543</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>213515; 319655</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>